--- a/neoapps/jsonstuff.xlsx
+++ b/neoapps/jsonstuff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\apps\pyclerk\neoapps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F4B271B-DE92-4798-B205-3D976642C29A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{65D89901-2278-49BE-BDF9-A0C6BA1E79A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="125">
   <si>
     <t>піб</t>
   </si>
@@ -66,24 +66,12 @@
     <t>проживання</t>
   </si>
   <si>
-    <t>Контактний телефон</t>
-  </si>
-  <si>
     <t>Ідентифікаційний код</t>
   </si>
   <si>
-    <t>Паспорт</t>
-  </si>
-  <si>
-    <t>Військовий квиток</t>
-  </si>
-  <si>
     <t>Участь в АТО (ООС)</t>
   </si>
   <si>
-    <t>Посвідчення учасника бойових дій</t>
-  </si>
-  <si>
     <t>Нагороди</t>
   </si>
   <si>
@@ -93,9 +81,6 @@
     <t>blood</t>
   </si>
   <si>
-    <t>Розмір взуття</t>
-  </si>
-  <si>
     <t>Розмір форми</t>
   </si>
   <si>
@@ -405,7 +390,19 @@
     <t>48/3</t>
   </si>
   <si>
-    <t>file</t>
+    <t>fileeng</t>
+  </si>
+  <si>
+    <t>паспорт</t>
+  </si>
+  <si>
+    <t>убд</t>
+  </si>
+  <si>
+    <t>shoes</t>
+  </si>
+  <si>
+    <t>phone</t>
   </si>
 </sst>
 </file>
@@ -572,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -584,29 +581,28 @@
     <col min="4" max="4" width="43" customWidth="1"/>
     <col min="5" max="5" width="57" customWidth="1"/>
     <col min="6" max="6" width="13.54296875" customWidth="1"/>
-    <col min="7" max="7" width="98.54296875" customWidth="1"/>
+    <col min="7" max="7" width="28.7265625" customWidth="1"/>
     <col min="8" max="8" width="4.81640625" customWidth="1"/>
-    <col min="9" max="9" width="59.08984375" customWidth="1"/>
+    <col min="9" max="9" width="22.81640625" customWidth="1"/>
     <col min="10" max="10" width="7.08984375" customWidth="1"/>
-    <col min="11" max="11" width="41.90625" customWidth="1"/>
+    <col min="11" max="11" width="23.7265625" customWidth="1"/>
     <col min="12" max="12" width="33.6328125" customWidth="1"/>
-    <col min="13" max="13" width="45" customWidth="1"/>
+    <col min="13" max="13" width="23.1796875" customWidth="1"/>
     <col min="14" max="14" width="18.81640625" customWidth="1"/>
     <col min="15" max="15" width="19.26953125" customWidth="1"/>
-    <col min="16" max="16" width="68.54296875" customWidth="1"/>
-    <col min="17" max="17" width="59.08984375" customWidth="1"/>
-    <col min="18" max="18" width="18.90625" customWidth="1"/>
-    <col min="19" max="19" width="30.453125" customWidth="1"/>
-    <col min="20" max="20" width="171.08984375" customWidth="1"/>
-    <col min="21" max="21" width="89.90625" customWidth="1"/>
+    <col min="16" max="16" width="21.453125" customWidth="1"/>
+    <col min="17" max="17" width="31.81640625" customWidth="1"/>
+    <col min="18" max="18" width="7.6328125" customWidth="1"/>
+    <col min="19" max="19" width="14.1796875" customWidth="1"/>
+    <col min="20" max="20" width="18.453125" customWidth="1"/>
+    <col min="21" max="21" width="11.54296875" customWidth="1"/>
     <col min="22" max="22" width="8.26953125" customWidth="1"/>
     <col min="23" max="23" width="12.90625" customWidth="1"/>
     <col min="24" max="24" width="13.26953125" customWidth="1"/>
     <col min="25" max="25" width="14.26953125" customWidth="1"/>
     <col min="26" max="26" width="9.90625" customWidth="1"/>
     <col min="27" max="27" width="7.6328125" customWidth="1"/>
-    <col min="28" max="28" width="14.6328125" customWidth="1"/>
-    <col min="29" max="29" width="38" customWidth="1"/>
+    <col min="28" max="28" width="6.453125" customWidth="1"/>
     <col min="31" max="31" width="28.08984375" customWidth="1"/>
     <col min="32" max="32" width="28.81640625" customWidth="1"/>
     <col min="33" max="33" width="14" customWidth="1"/>
@@ -622,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -658,120 +654,117 @@
         <v>11</v>
       </c>
       <c r="N1" t="s">
+        <v>124</v>
+      </c>
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
+        <v>122</v>
+      </c>
+      <c r="T1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
+        <v>123</v>
+      </c>
+      <c r="X1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="Y1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Z1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AA1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AB1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" t="s">
+      <c r="AD1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AE1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AF1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AG1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AH1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AI1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AJ1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AK1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AL1" t="s">
         <v>31</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" t="s">
+      <c r="G2" t="s">
         <v>38</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" t="s">
-        <v>43</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="L2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="M2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="N2">
         <v>955964145</v>
@@ -780,111 +773,111 @@
         <v>3148924290</v>
       </c>
       <c r="P2" t="s">
-        <v>48</v>
+        <v>43</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>50</v>
       </c>
       <c r="R2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" t="s">
         <v>44</v>
       </c>
-      <c r="S2" t="s">
-        <v>49</v>
-      </c>
       <c r="T2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="V2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="W2">
         <v>45</v>
       </c>
       <c r="X2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF2" t="s">
         <v>52</v>
       </c>
-      <c r="Y2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z2" t="s">
+      <c r="AG2" t="s">
         <v>53</v>
       </c>
-      <c r="AA2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB2" t="s">
+      <c r="AH2" t="s">
         <v>54</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AI2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AD2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AK2" t="s">
         <v>56</v>
       </c>
-      <c r="AF2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>61</v>
-      </c>
       <c r="AL2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" t="s">
         <v>62</v>
       </c>
-      <c r="B3" t="s">
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" t="s">
         <v>63</v>
-      </c>
-      <c r="C3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M3" t="s">
-        <v>68</v>
       </c>
       <c r="N3">
         <v>932808882</v>
@@ -893,84 +886,84 @@
         <v>2622016935</v>
       </c>
       <c r="P3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="Q3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="R3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="S3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="T3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="U3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="V3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="W3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="X3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="Y3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="Z3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="AA3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="AB3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="L4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="M4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N4">
         <v>675005498</v>
@@ -979,84 +972,84 @@
         <v>3052122354</v>
       </c>
       <c r="P4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="Q4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="R4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="S4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="T4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="U4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="V4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="W4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="X4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="Y4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="Z4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="AA4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="AB4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" t="s">
         <v>79</v>
       </c>
-      <c r="B5" t="s">
+      <c r="J5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" t="s">
         <v>80</v>
       </c>
-      <c r="C5" t="s">
+      <c r="M5" t="s">
         <v>81</v>
-      </c>
-      <c r="D5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" t="s">
-        <v>84</v>
-      </c>
-      <c r="J5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M5" t="s">
-        <v>86</v>
       </c>
       <c r="N5">
         <v>684325280</v>
@@ -1065,84 +1058,84 @@
         <v>3160825351</v>
       </c>
       <c r="P5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>83</v>
+      </c>
+      <c r="R5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S5" t="s">
+        <v>84</v>
+      </c>
+      <c r="T5" t="s">
+        <v>85</v>
+      </c>
+      <c r="U5" t="s">
+        <v>86</v>
+      </c>
+      <c r="V5" t="s">
         <v>87</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>88</v>
-      </c>
-      <c r="R5" t="s">
-        <v>44</v>
-      </c>
-      <c r="S5" t="s">
-        <v>89</v>
-      </c>
-      <c r="T5" t="s">
-        <v>90</v>
-      </c>
-      <c r="U5" t="s">
-        <v>91</v>
-      </c>
-      <c r="V5" t="s">
-        <v>92</v>
       </c>
       <c r="W5">
         <v>43</v>
       </c>
       <c r="X5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="Y5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="Z5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="AA5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="AB5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
         <v>95</v>
-      </c>
-      <c r="B6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" t="s">
-        <v>100</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="J6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="L6" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="M6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="N6">
         <v>683935612</v>
@@ -1151,84 +1144,84 @@
         <v>3590007778</v>
       </c>
       <c r="P6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="Q6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="S6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="T6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="U6" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="V6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="W6" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="X6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="Y6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="Z6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="AA6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="AB6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" t="s">
+        <v>109</v>
+      </c>
+      <c r="J7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" t="s">
         <v>110</v>
       </c>
-      <c r="B7" t="s">
+      <c r="L7" t="s">
         <v>111</v>
       </c>
-      <c r="C7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="M7" t="s">
         <v>112</v>
-      </c>
-      <c r="E7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" t="s">
-        <v>114</v>
-      </c>
-      <c r="J7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L7" t="s">
-        <v>116</v>
-      </c>
-      <c r="M7" t="s">
-        <v>117</v>
       </c>
       <c r="N7">
         <v>661846115</v>
@@ -1237,43 +1230,43 @@
         <v>3788207855</v>
       </c>
       <c r="P7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>114</v>
+      </c>
+      <c r="R7" t="s">
+        <v>39</v>
+      </c>
+      <c r="S7" t="s">
+        <v>115</v>
+      </c>
+      <c r="T7" t="s">
+        <v>116</v>
+      </c>
+      <c r="U7" t="s">
+        <v>117</v>
+      </c>
+      <c r="V7" t="s">
         <v>118</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>119</v>
-      </c>
-      <c r="R7" t="s">
-        <v>44</v>
-      </c>
-      <c r="S7" t="s">
-        <v>120</v>
-      </c>
-      <c r="T7" t="s">
-        <v>121</v>
-      </c>
-      <c r="U7" t="s">
-        <v>122</v>
-      </c>
-      <c r="V7" t="s">
-        <v>123</v>
       </c>
       <c r="W7">
         <v>42</v>
       </c>
       <c r="X7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="Y7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="Z7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="AA7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="AB7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
